--- a/数据整理/stocks/港股/03808-中国重汽.xlsx
+++ b/数据整理/stocks/港股/03808-中国重汽.xlsx
@@ -451,7 +451,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -472,15 +472,25 @@
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
           <t>股票总仓位</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>仓位占比</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>仓位排名</t>
         </is>
@@ -502,15 +512,25 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
+          <t>13.29</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
           <t>94.52</t>
         </is>
       </c>
-      <c r="E2" t="inlineStr">
+      <c r="F2" t="inlineStr">
         <is>
           <t>6.64</t>
         </is>
       </c>
-      <c r="F2" t="n">
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.8825</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
         <v>4</v>
       </c>
     </row>
@@ -530,15 +550,25 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
+          <t>9.28</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
           <t>90.12</t>
         </is>
       </c>
-      <c r="E3" t="inlineStr">
+      <c r="F3" t="inlineStr">
         <is>
           <t>6.14</t>
         </is>
       </c>
-      <c r="F3" t="n">
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.5698</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
         <v>8</v>
       </c>
     </row>
@@ -558,15 +588,25 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
+          <t>4.03</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
           <t>90.12</t>
         </is>
       </c>
-      <c r="E4" t="inlineStr">
+      <c r="F4" t="inlineStr">
         <is>
           <t>6.14</t>
         </is>
       </c>
-      <c r="F4" t="n">
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.2474</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
         <v>8</v>
       </c>
     </row>
@@ -581,7 +621,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -602,15 +642,25 @@
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
           <t>股票总仓位</t>
         </is>
       </c>
-      <c r="E1" s="2" t="inlineStr">
+      <c r="F1" s="2" t="inlineStr">
         <is>
           <t>仓位占比</t>
         </is>
       </c>
-      <c r="F1" s="2" t="inlineStr">
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
         <is>
           <t>仓位排名</t>
         </is>
@@ -632,15 +682,25 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
+          <t>6.52</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
           <t>91.30</t>
         </is>
       </c>
-      <c r="E2" t="inlineStr">
+      <c r="F2" t="inlineStr">
         <is>
           <t>9.18</t>
         </is>
       </c>
-      <c r="F2" t="n">
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.5985</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
         <v>1</v>
       </c>
     </row>
@@ -660,15 +720,25 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
+          <t>4.03</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
           <t>91.30</t>
         </is>
       </c>
-      <c r="E3" t="inlineStr">
+      <c r="F3" t="inlineStr">
         <is>
           <t>9.18</t>
         </is>
       </c>
-      <c r="F3" t="n">
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.3700</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
         <v>1</v>
       </c>
     </row>

--- a/数据整理/stocks/港股/03808-中国重汽.xlsx
+++ b/数据整理/stocks/港股/03808-中国重汽.xlsx
@@ -8,6 +8,7 @@
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -745,4 +746,98 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>010714</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>东方红远见价值混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>22.47</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>79.84</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>5.08</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>1.1415</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>8</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/港股/03808-中国重汽.xlsx
+++ b/数据整理/stocks/港股/03808-中国重汽.xlsx
@@ -9,6 +9,7 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -840,4 +841,98 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>010714</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>东方红远见价值混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>18.21</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>91.50</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>5.49</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.9997</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>2</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/港股/03808-中国重汽.xlsx
+++ b/数据整理/stocks/港股/03808-中国重汽.xlsx
@@ -10,6 +10,7 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="5" state="visible" r:id="rId5"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -935,4 +936,104 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>1</v>
+      </c>
+      <c r="D2" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>1</v>
+      </c>
+      <c r="D3" t="n">
+        <v>1.14</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>2</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0.97</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2020-Q4</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>3</v>
+      </c>
+      <c r="D5" t="n">
+        <v>1.7</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/港股/03808-中国重汽.xlsx
+++ b/数据整理/stocks/港股/03808-中国重汽.xlsx
@@ -10,7 +10,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="6" state="visible" r:id="rId6"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -944,7 +945,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -955,17 +956,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>持有市值</t>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -975,14 +996,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>1</v>
-      </c>
-      <c r="D2" t="n">
-        <v>1</v>
+          <t>010714</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>东方红远见价值混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>19.70</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>77.90</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>4.83</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.9515</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="3">
@@ -991,14 +1034,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>1</v>
-      </c>
-      <c r="D3" t="n">
-        <v>1.14</v>
+          <t>004532</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>民生加银中证港股通高股息精选指数A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>6.44</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>91.03</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>3.05</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.1964</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="4">
@@ -1007,14 +1072,120 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
+          <t>004533</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>民生加银中证港股通高股息精选指数C</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>0.12</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>91.03</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>3.05</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.0037</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>10</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>3</v>
+      </c>
+      <c r="D2" t="n">
+        <v>1.15</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>1</v>
+      </c>
+      <c r="D3" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D4" t="n">
-        <v>0.97</v>
+        <v>1.14</v>
       </c>
     </row>
     <row r="5">
@@ -1023,13 +1194,29 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>2</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0.97</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C5" t="n">
+      <c r="C6" t="n">
         <v>3</v>
       </c>
-      <c r="D5" t="n">
+      <c r="D6" t="n">
         <v>1.7</v>
       </c>
     </row>

--- a/数据整理/stocks/港股/03808-中国重汽.xlsx
+++ b/数据整理/stocks/港股/03808-中国重汽.xlsx
@@ -11,7 +11,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="7" state="visible" r:id="rId7"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -1115,7 +1116,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D6"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1126,17 +1127,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量(只)</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
           <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -1146,14 +1167,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>3</v>
-      </c>
-      <c r="D2" t="n">
-        <v>1.15</v>
+          <t>010714</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>东方红远见价值混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>19.70</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>86.34</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>3.02</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.5949</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="3">
@@ -1162,14 +1205,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>1</v>
-      </c>
-      <c r="D3" t="n">
-        <v>1</v>
+          <t>011651</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>招商港股通核心精选股票A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>2.81</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>81.27</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>2.69</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.0756</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="4">
@@ -1178,14 +1243,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>1</v>
-      </c>
-      <c r="D4" t="n">
-        <v>1.14</v>
+          <t>519139</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>海富通沪港深灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>1.32</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>94.37</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>3.05</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.0403</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="5">
@@ -1194,14 +1281,136 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
+          <t>011652</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>招商港股通核心精选股票C</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>0.94</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>81.27</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>2.69</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0253</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>8</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>4</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0.74</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>3</v>
+      </c>
+      <c r="D3" t="n">
+        <v>1.15</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>1</v>
+      </c>
+      <c r="D4" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D5" t="n">
-        <v>0.97</v>
+        <v>1.14</v>
       </c>
     </row>
     <row r="6">
@@ -1210,13 +1419,29 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>2</v>
+      </c>
+      <c r="D6" t="n">
+        <v>0.97</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C6" t="n">
+      <c r="C7" t="n">
         <v>3</v>
       </c>
-      <c r="D6" t="n">
+      <c r="D7" t="n">
         <v>1.7</v>
       </c>
     </row>

--- a/数据整理/stocks/港股/03808-中国重汽.xlsx
+++ b/数据整理/stocks/港股/03808-中国重汽.xlsx
@@ -12,7 +12,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="8" state="visible" r:id="rId8"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -1324,7 +1325,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D7"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1335,17 +1336,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量(只)</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
           <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -1355,14 +1376,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>4</v>
-      </c>
-      <c r="D2" t="n">
-        <v>0.74</v>
+          <t>010714</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>东方红远见价值混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>17.74</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>81.34</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>5.06</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.8976</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="3">
@@ -1371,14 +1414,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>3</v>
-      </c>
-      <c r="D3" t="n">
-        <v>1.15</v>
+          <t>513690</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>博时恒生港股通高股息率ETF</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>3.98</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>97.83</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>2.12</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.0844</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="4">
@@ -1387,14 +1452,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>1</v>
-      </c>
-      <c r="D4" t="n">
-        <v>1</v>
+          <t>011651</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>招商港股通核心精选股票A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>3.04</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>91.79</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>2.40</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.0730</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="5">
@@ -1403,14 +1490,136 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
+          <t>011652</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>招商港股通核心精选股票C</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>1.01</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>91.79</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>2.40</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0242</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>9</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2022-Q2</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>4</v>
+      </c>
+      <c r="D2" t="n">
+        <v>1.08</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>4</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0.74</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>3</v>
+      </c>
+      <c r="D4" t="n">
+        <v>1.15</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
         </is>
       </c>
       <c r="C5" t="n">
         <v>1</v>
       </c>
       <c r="D5" t="n">
-        <v>1.14</v>
+        <v>1</v>
       </c>
     </row>
     <row r="6">
@@ -1419,14 +1628,14 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
+          <t>2021-Q2</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D6" t="n">
-        <v>0.97</v>
+        <v>1.14</v>
       </c>
     </row>
     <row r="7">
@@ -1435,13 +1644,29 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C7" t="n">
+        <v>2</v>
+      </c>
+      <c r="D7" t="n">
+        <v>0.97</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C7" t="n">
+      <c r="C8" t="n">
         <v>3</v>
       </c>
-      <c r="D7" t="n">
+      <c r="D8" t="n">
         <v>1.7</v>
       </c>
     </row>

--- a/数据整理/stocks/港股/03808-中国重汽.xlsx
+++ b/数据整理/stocks/港股/03808-中国重汽.xlsx
@@ -7,13 +7,14 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="9" state="visible" r:id="rId9"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -457,7 +458,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D8"/>
+  <dimension ref="A1:D9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -488,14 +489,14 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q2</t>
+          <t>2022-Q3</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D2" t="n">
-        <v>1.08</v>
+        <v>0.79</v>
       </c>
     </row>
     <row r="3">
@@ -504,14 +505,14 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
+          <t>2022-Q2</t>
         </is>
       </c>
       <c r="C3" t="n">
         <v>4</v>
       </c>
       <c r="D3" t="n">
-        <v>0.74</v>
+        <v>1.08</v>
       </c>
     </row>
     <row r="4">
@@ -520,14 +521,14 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
+          <t>2022-Q1</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D4" t="n">
-        <v>1.15</v>
+        <v>0.74</v>
       </c>
     </row>
     <row r="5">
@@ -536,14 +537,14 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
+          <t>2021-Q4</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D5" t="n">
-        <v>1</v>
+        <v>1.15</v>
       </c>
     </row>
     <row r="6">
@@ -552,14 +553,14 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
+          <t>2021-Q3</t>
         </is>
       </c>
       <c r="C6" t="n">
         <v>1</v>
       </c>
       <c r="D6" t="n">
-        <v>1.14</v>
+        <v>1</v>
       </c>
     </row>
     <row r="7">
@@ -568,14 +569,14 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
+          <t>2021-Q2</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D7" t="n">
-        <v>0.97</v>
+        <v>1.14</v>
       </c>
     </row>
     <row r="8">
@@ -584,13 +585,29 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C8" t="n">
+        <v>2</v>
+      </c>
+      <c r="D8" t="n">
+        <v>0.97</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C8" t="n">
+      <c r="C9" t="n">
         <v>3</v>
       </c>
-      <c r="D8" t="n">
+      <c r="D9" t="n">
         <v>1.7</v>
       </c>
     </row>
@@ -605,7 +622,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H5"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -666,140 +683,26 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>17.74</t>
+          <t>15.24</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>81.34</t>
+          <t>94.15</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>5.06</t>
+          <t>5.17</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>0.8976</t>
+          <t>0.7879</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>513690</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>博时恒生港股通高股息率ETF</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>3.98</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>97.83</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>2.12</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>0.0844</t>
-        </is>
-      </c>
-      <c r="H3" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="2" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>011651</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>招商港股通核心精选股票A</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>3.04</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>91.79</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>2.40</t>
-        </is>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>0.0730</t>
-        </is>
-      </c>
-      <c r="H4" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="2" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>011652</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>招商港股通核心精选股票C</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>1.01</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>91.79</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>2.40</t>
-        </is>
-      </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>0.0242</t>
-        </is>
-      </c>
-      <c r="H5" t="n">
-        <v>9</v>
+        <v>4</v>
       </c>
     </row>
   </sheetData>
@@ -874,26 +777,26 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>19.70</t>
+          <t>17.74</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>86.34</t>
+          <t>81.34</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>3.02</t>
+          <t>5.06</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>0.5949</t>
+          <t>0.8976</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>8</v>
+        <v>1</v>
       </c>
     </row>
     <row r="3">
@@ -902,36 +805,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>011651</t>
+          <t>513690</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>招商港股通核心精选股票A</t>
+          <t>博时恒生港股通高股息率ETF</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>2.81</t>
+          <t>3.98</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>81.27</t>
+          <t>97.83</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>2.69</t>
+          <t>2.12</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>0.0756</t>
+          <t>0.0844</t>
         </is>
       </c>
       <c r="H3" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
     </row>
     <row r="4">
@@ -940,36 +843,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>519139</t>
+          <t>011651</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>海富通沪港深灵活配置混合</t>
+          <t>招商港股通核心精选股票A</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>1.32</t>
+          <t>3.04</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>94.37</t>
+          <t>91.79</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>3.05</t>
+          <t>2.40</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>0.0403</t>
+          <t>0.0730</t>
         </is>
       </c>
       <c r="H4" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="5">
@@ -988,26 +891,26 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>0.94</t>
+          <t>1.01</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>81.27</t>
+          <t>91.79</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>2.69</t>
+          <t>2.40</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>0.0253</t>
+          <t>0.0242</t>
         </is>
       </c>
       <c r="H5" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
   </sheetData>
@@ -1016,6 +919,214 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>010714</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>东方红远见价值混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>19.70</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>86.34</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>3.02</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.5949</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>011651</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>招商港股通核心精选股票A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>2.81</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>81.27</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>2.69</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.0756</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>519139</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>海富通沪港深灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>1.32</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>94.37</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>3.05</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.0403</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>011652</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>招商港股通核心精选股票C</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>0.94</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>81.27</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>2.69</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0253</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>8</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1178,100 +1289,6 @@
       </c>
       <c r="H4" t="n">
         <v>10</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:H2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="B1" s="2" t="inlineStr">
-        <is>
-          <t>基金代码</t>
-        </is>
-      </c>
-      <c r="C1" s="2" t="inlineStr">
-        <is>
-          <t>基金名称</t>
-        </is>
-      </c>
-      <c r="D1" s="2" t="inlineStr">
-        <is>
-          <t>基金金额</t>
-        </is>
-      </c>
-      <c r="E1" s="2" t="inlineStr">
-        <is>
-          <t>股票总仓位</t>
-        </is>
-      </c>
-      <c r="F1" s="2" t="inlineStr">
-        <is>
-          <t>仓位占比</t>
-        </is>
-      </c>
-      <c r="G1" s="2" t="inlineStr">
-        <is>
-          <t>持有市值(亿元)</t>
-        </is>
-      </c>
-      <c r="H1" s="2" t="inlineStr">
-        <is>
-          <t>仓位排名</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>010714</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>东方红远见价值混合</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>18.21</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>91.50</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>5.49</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>0.9997</t>
-        </is>
-      </c>
-      <c r="H2" t="n">
-        <v>2</v>
       </c>
     </row>
   </sheetData>
@@ -1346,26 +1363,26 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>22.47</t>
+          <t>18.21</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>79.84</t>
+          <t>91.50</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>5.08</t>
+          <t>5.49</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>1.1415</t>
+          <t>0.9997</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>8</v>
+        <v>2</v>
       </c>
     </row>
   </sheetData>
@@ -1374,6 +1391,100 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>010714</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>东方红远见价值混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>22.47</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>79.84</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>5.08</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>1.1415</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>8</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1505,7 +1616,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>

--- a/数据整理/stocks/港股/03808-中国重汽.xlsx
+++ b/数据整理/stocks/港股/03808-中国重汽.xlsx
@@ -7,14 +7,15 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="8" state="visible" r:id="rId8"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="9" state="visible" r:id="rId9"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q4" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="9" state="visible" r:id="rId9"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="10" state="visible" r:id="rId10"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -458,7 +459,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D9"/>
+  <dimension ref="A1:D10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -489,14 +490,14 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q3</t>
+          <t>2022-Q4</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>1</v>
+        <v>15</v>
       </c>
       <c r="D2" t="n">
-        <v>0.79</v>
+        <v>2.84</v>
       </c>
     </row>
     <row r="3">
@@ -505,14 +506,14 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2022-Q2</t>
+          <t>2022-Q3</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D3" t="n">
-        <v>1.08</v>
+        <v>0.79</v>
       </c>
     </row>
     <row r="4">
@@ -521,14 +522,14 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
+          <t>2022-Q2</t>
         </is>
       </c>
       <c r="C4" t="n">
         <v>4</v>
       </c>
       <c r="D4" t="n">
-        <v>0.74</v>
+        <v>1.08</v>
       </c>
     </row>
     <row r="5">
@@ -537,14 +538,14 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
+          <t>2022-Q1</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D5" t="n">
-        <v>1.15</v>
+        <v>0.74</v>
       </c>
     </row>
     <row r="6">
@@ -553,14 +554,14 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
+          <t>2021-Q4</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D6" t="n">
-        <v>1</v>
+        <v>1.15</v>
       </c>
     </row>
     <row r="7">
@@ -569,14 +570,14 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
+          <t>2021-Q3</t>
         </is>
       </c>
       <c r="C7" t="n">
         <v>1</v>
       </c>
       <c r="D7" t="n">
-        <v>1.14</v>
+        <v>1</v>
       </c>
     </row>
     <row r="8">
@@ -585,14 +586,14 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
+          <t>2021-Q2</t>
         </is>
       </c>
       <c r="C8" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D8" t="n">
-        <v>0.97</v>
+        <v>1.14</v>
       </c>
     </row>
     <row r="9">
@@ -601,13 +602,29 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C9" t="n">
+        <v>2</v>
+      </c>
+      <c r="D9" t="n">
+        <v>0.97</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C9" t="n">
+      <c r="C10" t="n">
         <v>3</v>
       </c>
-      <c r="D9" t="n">
+      <c r="D10" t="n">
         <v>1.7</v>
       </c>
     </row>
@@ -616,7 +633,801 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H4"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>005644</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>广发沪港深行业龙头混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>13.29</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>94.52</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>6.64</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.8825</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>007066</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>浦银安盛先进制造混合A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>9.28</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>90.12</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>6.14</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.5698</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>007067</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>浦银安盛先进制造混合C</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>4.03</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>90.12</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>6.14</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.2474</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>8</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H16"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>009864</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>招商景气优选股票A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>15.94</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>88.83</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>5.36</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.8544</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>010714</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>东方红远见价值混合A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>16.55</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>83.49</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>5.11</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.8457</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>009865</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>招商景气优选股票C</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>6.26</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>88.83</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>5.36</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.3355</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>006364</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>招商丰韵混合A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>3.92</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>88.30</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>5.27</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.2066</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>008075</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>招商核心优选股票A</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>3.57</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>89.98</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>5.27</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.1881</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>012252</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>安信宏盈18个月持有混合</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>9.14</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>25.05</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>0.96</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0877</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>011651</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>招商港股通核心精选股票A</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>1.89</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>90.53</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>4.00</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0756</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>014621</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>安信楚盈一年持有混合A</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>5.80</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>22.23</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>0.94</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.0545</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>006365</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>招商丰韵混合C</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>0.93</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>88.30</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>5.27</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.0490</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>008531</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>惠升惠民混合A</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>1.60</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>82.84</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>2.61</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.0418</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>011652</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>招商港股通核心精选股票C</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>0.97</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>90.53</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>4.00</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.0388</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>008532</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>惠升惠民混合C</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>0.90</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>82.84</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>2.61</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.0235</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>014622</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>安信楚盈一年持有混合C</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>2.11</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>22.23</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>0.94</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.0198</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>008076</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>招商核心优选股票C</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>0.34</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>89.98</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>5.27</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.0179</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>017537</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>东方红远见价值混合C</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>83.49</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>5.11</t>
+        </is>
+      </c>
+      <c r="G16" t="n">
+        <v>0</v>
+      </c>
+      <c r="H16" t="n">
+        <v>2</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -703,214 +1514,6 @@
       </c>
       <c r="H2" t="n">
         <v>4</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:H5"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="B1" s="2" t="inlineStr">
-        <is>
-          <t>基金代码</t>
-        </is>
-      </c>
-      <c r="C1" s="2" t="inlineStr">
-        <is>
-          <t>基金名称</t>
-        </is>
-      </c>
-      <c r="D1" s="2" t="inlineStr">
-        <is>
-          <t>基金规模</t>
-        </is>
-      </c>
-      <c r="E1" s="2" t="inlineStr">
-        <is>
-          <t>股票总仓位</t>
-        </is>
-      </c>
-      <c r="F1" s="2" t="inlineStr">
-        <is>
-          <t>仓位占比</t>
-        </is>
-      </c>
-      <c r="G1" s="2" t="inlineStr">
-        <is>
-          <t>持有市值(亿元)</t>
-        </is>
-      </c>
-      <c r="H1" s="2" t="inlineStr">
-        <is>
-          <t>仓位排名</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>010714</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>东方红远见价值混合</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>17.74</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>81.34</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>5.06</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>0.8976</t>
-        </is>
-      </c>
-      <c r="H2" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>513690</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>博时恒生港股通高股息率ETF</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>3.98</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>97.83</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>2.12</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>0.0844</t>
-        </is>
-      </c>
-      <c r="H3" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="2" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>011651</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>招商港股通核心精选股票A</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>3.04</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>91.79</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>2.40</t>
-        </is>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>0.0730</t>
-        </is>
-      </c>
-      <c r="H4" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="2" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>011652</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>招商港股通核心精选股票C</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>1.01</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>91.79</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>2.40</t>
-        </is>
-      </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>0.0242</t>
-        </is>
-      </c>
-      <c r="H5" t="n">
-        <v>9</v>
       </c>
     </row>
   </sheetData>
@@ -985,26 +1588,26 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>19.70</t>
+          <t>17.74</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>86.34</t>
+          <t>81.34</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>3.02</t>
+          <t>5.06</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>0.5949</t>
+          <t>0.8976</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>8</v>
+        <v>1</v>
       </c>
     </row>
     <row r="3">
@@ -1013,36 +1616,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>011651</t>
+          <t>513690</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>招商港股通核心精选股票A</t>
+          <t>博时恒生港股通高股息率ETF</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>2.81</t>
+          <t>3.98</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>81.27</t>
+          <t>97.83</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>2.69</t>
+          <t>2.12</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>0.0756</t>
+          <t>0.0844</t>
         </is>
       </c>
       <c r="H3" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
     </row>
     <row r="4">
@@ -1051,36 +1654,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>519139</t>
+          <t>011651</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>海富通沪港深灵活配置混合</t>
+          <t>招商港股通核心精选股票A</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>1.32</t>
+          <t>3.04</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>94.37</t>
+          <t>91.79</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>3.05</t>
+          <t>2.40</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>0.0403</t>
+          <t>0.0730</t>
         </is>
       </c>
       <c r="H4" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="5">
@@ -1099,26 +1702,26 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>0.94</t>
+          <t>1.01</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>81.27</t>
+          <t>91.79</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>2.69</t>
+          <t>2.40</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>0.0253</t>
+          <t>0.0242</t>
         </is>
       </c>
       <c r="H5" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
   </sheetData>
@@ -1127,6 +1730,214 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>010714</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>东方红远见价值混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>19.70</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>86.34</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>3.02</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.5949</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>011651</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>招商港股通核心精选股票A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>2.81</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>81.27</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>2.69</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.0756</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>519139</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>海富通沪港深灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>1.32</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>94.37</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>3.05</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.0403</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>011652</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>招商港股通核心精选股票C</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>0.94</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>81.27</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>2.69</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0253</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>8</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1289,100 +2100,6 @@
       </c>
       <c r="H4" t="n">
         <v>10</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:H2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="B1" s="2" t="inlineStr">
-        <is>
-          <t>基金代码</t>
-        </is>
-      </c>
-      <c r="C1" s="2" t="inlineStr">
-        <is>
-          <t>基金名称</t>
-        </is>
-      </c>
-      <c r="D1" s="2" t="inlineStr">
-        <is>
-          <t>基金金额</t>
-        </is>
-      </c>
-      <c r="E1" s="2" t="inlineStr">
-        <is>
-          <t>股票总仓位</t>
-        </is>
-      </c>
-      <c r="F1" s="2" t="inlineStr">
-        <is>
-          <t>仓位占比</t>
-        </is>
-      </c>
-      <c r="G1" s="2" t="inlineStr">
-        <is>
-          <t>持有市值(亿元)</t>
-        </is>
-      </c>
-      <c r="H1" s="2" t="inlineStr">
-        <is>
-          <t>仓位排名</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>010714</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>东方红远见价值混合</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>18.21</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>91.50</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>5.49</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>0.9997</t>
-        </is>
-      </c>
-      <c r="H2" t="n">
-        <v>2</v>
       </c>
     </row>
   </sheetData>
@@ -1457,26 +2174,26 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>22.47</t>
+          <t>18.21</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>79.84</t>
+          <t>91.50</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>5.08</t>
+          <t>5.49</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>1.1415</t>
+          <t>0.9997</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>8</v>
+        <v>2</v>
       </c>
     </row>
   </sheetData>
@@ -1485,6 +2202,100 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>010714</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>东方红远见价值混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>22.47</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>79.84</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>5.08</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>1.1415</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>8</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1614,174 +2425,4 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:H4"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>基金代码</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>基金名称</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>基金金额</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>股票总仓位</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>仓位占比</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
-        <is>
-          <t>持有市值(亿元)</t>
-        </is>
-      </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>仓位排名</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>005644</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>广发沪港深行业龙头混合</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>13.29</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>94.52</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>6.64</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>0.8825</t>
-        </is>
-      </c>
-      <c r="H2" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>007066</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>浦银安盛先进制造混合A</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>9.28</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>90.12</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>6.14</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>0.5698</t>
-        </is>
-      </c>
-      <c r="H3" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>007067</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>浦银安盛先进制造混合C</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>4.03</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>90.12</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>6.14</t>
-        </is>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>0.2474</t>
-        </is>
-      </c>
-      <c r="H4" t="n">
-        <v>8</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>